--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value442.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value442.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.535376665761148</v>
+        <v>1.837082743644714</v>
       </c>
       <c r="B1">
-        <v>1.598295818544674</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.645284368576359</v>
+        <v>2.451897859573364</v>
       </c>
       <c r="D1">
-        <v>2.047838972948366</v>
+        <v>1.239700555801392</v>
       </c>
       <c r="E1">
-        <v>2.217198031572669</v>
+        <v>0.8814833164215088</v>
       </c>
     </row>
   </sheetData>
